--- a/xlsx_files/Race19.xlsx
+++ b/xlsx_files/Race19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A812B6AB-3F53-479E-BD33-381E0FC221EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C21DB6-DA5F-4192-A5B7-7C983A062F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="3420" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="948" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Track Name</t>
   </si>
@@ -199,13 +199,19 @@
   </si>
   <si>
     <t>01:41.0370</t>
+  </si>
+  <si>
+    <t>Oleksiy Bahriy</t>
+  </si>
+  <si>
+    <t>Oleksandr Borodai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +228,12 @@
     <font>
       <sz val="9"/>
       <name val="Noto Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,8 +253,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -254,8 +267,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{F51EE860-1B90-4BAC-8A5C-7B40D7903340}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -756,8 +770,8 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
+      <c r="B19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -765,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -773,7 +787,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -781,7 +795,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -789,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -797,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -805,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -813,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -821,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -829,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -837,7 +851,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -845,7 +859,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -853,7 +867,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -861,15 +875,15 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>37</v>
+      <c r="B33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -877,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -885,7 +899,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -893,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -901,7 +915,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -909,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -917,7 +931,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -925,7 +939,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -933,7 +947,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -941,7 +955,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -949,6 +963,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
